--- a/Saved_file/EM002/2026_03/sap_data.xlsx
+++ b/Saved_file/EM002/2026_03/sap_data.xlsx
@@ -492,29 +492,29 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-03-30</t>
+          <t>2026-03-10</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CUST9794</t>
+          <t>CUST2469</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>19583792</v>
+        <v>20207168</v>
       </c>
       <c r="E2" t="n">
-        <v>2817085</v>
+        <v>2489694</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -524,17 +524,17 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -546,29 +546,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2026-03-26</t>
+          <t>2026-03-19</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CUST1463</t>
+          <t>CUST9943</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>13243981</v>
+        <v>13185359</v>
       </c>
       <c r="E3" t="n">
-        <v>2296569</v>
+        <v>1766138</v>
       </c>
       <c r="F3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>23</v>
+        <v>123</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -578,17 +578,17 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -600,29 +600,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2026-03-28</t>
+          <t>2026-03-16</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CUST7187</t>
+          <t>CUST9163</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>12309376</v>
+        <v>11647686</v>
       </c>
       <c r="E4" t="n">
-        <v>1834167</v>
+        <v>1538049</v>
       </c>
       <c r="F4" t="n">
         <v>2</v>
       </c>
       <c r="G4" t="n">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -637,12 +637,12 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -654,25 +654,25 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2026-03-08</t>
+          <t>2026-03-18</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CUST6795</t>
+          <t>CUST1177</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>15281998</v>
+        <v>18894041</v>
       </c>
       <c r="E5" t="n">
-        <v>2765846</v>
+        <v>2211282</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -708,25 +708,25 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2026-03-29</t>
+          <t>2026-03-21</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CUST4830</t>
+          <t>CUST5592</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>24014053</v>
+        <v>8451005</v>
       </c>
       <c r="E6" t="n">
-        <v>4561108</v>
+        <v>1543159</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -740,17 +740,17 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -762,29 +762,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2026-03-12</t>
+          <t>2026-03-17</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CUST9917</t>
+          <t>CUST4352</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>15763743</v>
+        <v>23630854</v>
       </c>
       <c r="E7" t="n">
-        <v>2702496</v>
+        <v>4405439</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>136</v>
+        <v>16</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -794,7 +794,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -804,7 +804,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -816,25 +816,25 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2026-03-03</t>
+          <t>2026-03-14</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CUST4338</t>
+          <t>CUST1587</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>19218822</v>
+        <v>11031229</v>
       </c>
       <c r="E8" t="n">
-        <v>2511323</v>
+        <v>2125642</v>
       </c>
       <c r="F8" t="n">
         <v>2</v>
       </c>
       <c r="G8" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -853,12 +853,12 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -870,29 +870,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2026-03-23</t>
+          <t>2026-03-18</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CUST4038</t>
+          <t>CUST2746</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>15969968</v>
+        <v>9800491</v>
       </c>
       <c r="E9" t="n">
-        <v>1956956</v>
+        <v>1110146</v>
       </c>
       <c r="F9" t="n">
         <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -912,7 +912,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -924,29 +924,29 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2026-03-15</t>
+          <t>2026-03-28</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CUST3697</t>
+          <t>CUST9609</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>22049148</v>
+        <v>10287438</v>
       </c>
       <c r="E10" t="n">
-        <v>2551292</v>
+        <v>1782983</v>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -956,7 +956,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -978,29 +978,29 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2026-03-26</t>
+          <t>2026-03-18</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CUST4338</t>
+          <t>CUST6503</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>12781944</v>
+        <v>11840344</v>
       </c>
       <c r="E11" t="n">
-        <v>2292040</v>
+        <v>1498770</v>
       </c>
       <c r="F11" t="n">
         <v>2</v>
       </c>
       <c r="G11" t="n">
-        <v>135</v>
+        <v>60</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1010,7 +1010,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1020,7 +1020,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1032,25 +1032,25 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2026-03-10</t>
+          <t>2026-03-28</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CUST6561</t>
+          <t>CUST1921</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>23554301</v>
+        <v>20339653</v>
       </c>
       <c r="E12" t="n">
-        <v>2970620</v>
+        <v>2977996</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G12" t="n">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -1064,7 +1064,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -1086,25 +1086,25 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2026-03-08</t>
+          <t>2026-03-17</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CUST7060</t>
+          <t>CUST6018</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>8847841</v>
+        <v>14414113</v>
       </c>
       <c r="E13" t="n">
-        <v>1549970</v>
+        <v>2497603</v>
       </c>
       <c r="F13" t="n">
         <v>2</v>
       </c>
       <c r="G13" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -1118,17 +1118,17 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1140,25 +1140,25 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2026-03-08</t>
+          <t>2026-03-23</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CUST4350</t>
+          <t>CUST7539</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>19899676</v>
+        <v>16872430</v>
       </c>
       <c r="E14" t="n">
-        <v>3565563</v>
+        <v>2798487</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1172,17 +1172,17 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -1194,25 +1194,25 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2026-03-05</t>
+          <t>2026-03-24</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CUST9756</t>
+          <t>CUST1177</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>18160769</v>
+        <v>16186916</v>
       </c>
       <c r="E15" t="n">
-        <v>2542535</v>
+        <v>2269274</v>
       </c>
       <c r="F15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137</v>
+        <v>95</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1226,17 +1226,17 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1248,25 +1248,25 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2026-03-28</t>
+          <t>2026-03-07</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CUST1463</t>
+          <t>CUST7608</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>11579217</v>
+        <v>20596576</v>
       </c>
       <c r="E16" t="n">
-        <v>1408053</v>
+        <v>2205795</v>
       </c>
       <c r="F16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G16" t="n">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1280,12 +1280,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1302,25 +1302,25 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2026-03-20</t>
+          <t>2026-03-03</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CUST4234</t>
+          <t>CUST2871</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>8306852</v>
+        <v>16777696</v>
       </c>
       <c r="E17" t="n">
-        <v>1575329</v>
+        <v>2458654</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G17" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1334,12 +1334,12 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1356,29 +1356,29 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2026-03-17</t>
+          <t>2026-03-25</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CUST9794</t>
+          <t>CUST7331</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>10874513</v>
+        <v>20099158</v>
       </c>
       <c r="E18" t="n">
-        <v>1138044</v>
+        <v>3226642</v>
       </c>
       <c r="F18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>64</v>
+        <v>163</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1388,12 +1388,12 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1410,29 +1410,29 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2026-03-19</t>
+          <t>2026-03-21</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CUST9756</t>
+          <t>CUST4698</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>13033894</v>
+        <v>14764463</v>
       </c>
       <c r="E19" t="n">
-        <v>1599926</v>
+        <v>1641694</v>
       </c>
       <c r="F19" t="n">
         <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>111</v>
+        <v>148</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1447,12 +1447,12 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -1464,29 +1464,29 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2026-03-17</t>
+          <t>2026-03-04</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CUST6561</t>
+          <t>CUST4478</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>12103561</v>
+        <v>24859153</v>
       </c>
       <c r="E20" t="n">
-        <v>1322311</v>
+        <v>3589695</v>
       </c>
       <c r="F20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1496,12 +1496,12 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1518,29 +1518,29 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2026-03-10</t>
+          <t>2026-03-07</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CUST5413</t>
+          <t>CUST2469</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>13223546</v>
+        <v>16894890</v>
       </c>
       <c r="E21" t="n">
-        <v>2108690</v>
+        <v>3162863</v>
       </c>
       <c r="F21" t="n">
         <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1550,17 +1550,17 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -1577,24 +1577,24 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>CUST7187</t>
+          <t>CUST6018</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>14599052</v>
+        <v>21988167</v>
       </c>
       <c r="E22" t="n">
-        <v>1747352</v>
+        <v>4371918</v>
       </c>
       <c r="F22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>121</v>
+        <v>169</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1626,29 +1626,29 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2026-03-31</t>
+          <t>2026-03-18</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CUST3697</t>
+          <t>CUST7962</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>15507635</v>
+        <v>8226990</v>
       </c>
       <c r="E23" t="n">
-        <v>1869434</v>
+        <v>1313498</v>
       </c>
       <c r="F23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1663,12 +1663,12 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -1680,29 +1680,29 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2026-03-20</t>
+          <t>2026-03-08</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>CUST9794</t>
+          <t>CUST8305</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>15263846</v>
+        <v>12917892</v>
       </c>
       <c r="E24" t="n">
-        <v>2267159</v>
+        <v>1542963</v>
       </c>
       <c r="F24" t="n">
         <v>3</v>
       </c>
       <c r="G24" t="n">
-        <v>51</v>
+        <v>159</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1712,17 +1712,17 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1734,25 +1734,25 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2026-03-19</t>
+          <t>2026-03-23</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CUST5489</t>
+          <t>CUST6738</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>15632108</v>
+        <v>15771895</v>
       </c>
       <c r="E25" t="n">
-        <v>1931334</v>
+        <v>1685532</v>
       </c>
       <c r="F25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1766,17 +1766,17 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -1788,29 +1788,29 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2026-03-28</t>
+          <t>2026-03-02</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>CUST1841</t>
+          <t>CUST7962</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>22013488</v>
+        <v>11748268</v>
       </c>
       <c r="E26" t="n">
-        <v>2354194</v>
+        <v>1737900</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G26" t="n">
-        <v>38</v>
+        <v>127</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1820,17 +1820,17 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -1842,25 +1842,25 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2026-03-10</t>
+          <t>2026-03-23</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>CUST1787</t>
+          <t>CUST8305</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>19941212</v>
+        <v>24606308</v>
       </c>
       <c r="E27" t="n">
-        <v>3128472</v>
+        <v>3873510</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G27" t="n">
-        <v>104</v>
+        <v>145</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -1879,12 +1879,12 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -1896,29 +1896,29 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2026-03-29</t>
+          <t>2026-03-12</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>CUST6542</t>
+          <t>CUST5081</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>9843094</v>
+        <v>17121485</v>
       </c>
       <c r="E28" t="n">
-        <v>1452534</v>
+        <v>2146432</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="n">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1933,12 +1933,12 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1950,29 +1950,29 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2026-03-27</t>
+          <t>2026-03-13</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>CUST3697</t>
+          <t>CUST6503</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>12474275</v>
+        <v>8453505</v>
       </c>
       <c r="E29" t="n">
-        <v>1296000</v>
+        <v>1476137</v>
       </c>
       <c r="F29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G29" t="n">
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -1982,17 +1982,17 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2004,29 +2004,29 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2026-03-16</t>
+          <t>2026-03-28</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CUST4234</t>
+          <t>CUST9965</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>14430853</v>
+        <v>8414393</v>
       </c>
       <c r="E30" t="n">
-        <v>1982150</v>
+        <v>1339455</v>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G30" t="n">
-        <v>108</v>
+        <v>24</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2036,17 +2036,17 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -2058,25 +2058,25 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2026-03-23</t>
+          <t>2026-03-04</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>CUST9756</t>
+          <t>CUST5081</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>12966126</v>
+        <v>15922493</v>
       </c>
       <c r="E31" t="n">
-        <v>2211861</v>
+        <v>2180282</v>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -2100,7 +2100,7 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2112,25 +2112,25 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2026-03-25</t>
+          <t>2026-03-07</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>CUST6657</t>
+          <t>CUST1433</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>19380187</v>
+        <v>8868167</v>
       </c>
       <c r="E32" t="n">
-        <v>2984789</v>
+        <v>919003</v>
       </c>
       <c r="F32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -2144,17 +2144,17 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2166,25 +2166,25 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2026-03-16</t>
+          <t>2026-03-31</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>CUST7882</t>
+          <t>CUST1921</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>17454577</v>
+        <v>20089638</v>
       </c>
       <c r="E33" t="n">
-        <v>1763048</v>
+        <v>2020354</v>
       </c>
       <c r="F33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -2220,29 +2220,29 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2026-03-18</t>
+          <t>2026-03-13</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>CUST9975</t>
+          <t>CUST2746</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>10902918</v>
+        <v>20775199</v>
       </c>
       <c r="E34" t="n">
-        <v>2047675</v>
+        <v>4097343</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34" t="n">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2252,7 +2252,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2262,7 +2262,7 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -2274,29 +2274,29 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2026-03-07</t>
+          <t>2026-03-10</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>CUST3060</t>
+          <t>CUST1826</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>22835624</v>
+        <v>11340378</v>
       </c>
       <c r="E35" t="n">
-        <v>3158045</v>
+        <v>1188652</v>
       </c>
       <c r="F35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2311,12 +2311,12 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -2328,25 +2328,25 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2026-03-27</t>
+          <t>2026-03-17</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>CUST7619</t>
+          <t>CUST1389</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>23207024</v>
+        <v>15995772</v>
       </c>
       <c r="E36" t="n">
-        <v>3831381</v>
+        <v>1858536</v>
       </c>
       <c r="F36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G36" t="n">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2382,25 +2382,25 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2026-03-27</t>
+          <t>2026-03-19</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CUST5901</t>
+          <t>CUST7608</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>15885232</v>
+        <v>17255408</v>
       </c>
       <c r="E37" t="n">
-        <v>1626854</v>
+        <v>2399335</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -2414,17 +2414,17 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2436,29 +2436,29 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2026-03-03</t>
+          <t>2026-03-27</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>CUST4927</t>
+          <t>CUST2857</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>11060587</v>
+        <v>24620531</v>
       </c>
       <c r="E38" t="n">
-        <v>1136499</v>
+        <v>3569543</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G38" t="n">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2473,12 +2473,12 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2490,29 +2490,29 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2026-03-14</t>
+          <t>2026-03-18</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>CUST2235</t>
+          <t>CUST4201</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>20538531</v>
+        <v>22064693</v>
       </c>
       <c r="E39" t="n">
-        <v>3227142</v>
+        <v>2434640</v>
       </c>
       <c r="F39" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G39" t="n">
-        <v>179</v>
+        <v>81</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2522,17 +2522,17 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2544,25 +2544,25 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2026-03-01</t>
+          <t>2026-03-24</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>CUST3243</t>
+          <t>CUST8073</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>22731704</v>
+        <v>10320103</v>
       </c>
       <c r="E40" t="n">
-        <v>4076965</v>
+        <v>1063872</v>
       </c>
       <c r="F40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G40" t="n">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
@@ -2581,12 +2581,12 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2598,29 +2598,29 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2026-03-23</t>
+          <t>2026-03-16</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>CUST5489</t>
+          <t>CUST9989</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>13786104</v>
+        <v>11497272</v>
       </c>
       <c r="E41" t="n">
-        <v>2346811</v>
+        <v>1640677</v>
       </c>
       <c r="F41" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2630,12 +2630,12 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -2652,29 +2652,29 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2026-03-14</t>
+          <t>2026-03-13</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>CUST7187</t>
+          <t>CUST6078</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>12207230</v>
+        <v>20701137</v>
       </c>
       <c r="E42" t="n">
-        <v>1944798</v>
+        <v>2463242</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G42" t="n">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2684,7 +2684,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -2706,25 +2706,25 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2026-03-05</t>
+          <t>2026-03-09</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>CUST4234</t>
+          <t>CUST1433</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>24238002</v>
+        <v>23374878</v>
       </c>
       <c r="E43" t="n">
-        <v>3134283</v>
+        <v>3617280</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
@@ -2738,17 +2738,17 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -2760,29 +2760,29 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2026-03-05</t>
+          <t>2026-03-13</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>CUST1463</t>
+          <t>CUST8342</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>11076559</v>
+        <v>9137792</v>
       </c>
       <c r="E44" t="n">
-        <v>1879325</v>
+        <v>1227907</v>
       </c>
       <c r="F44" t="n">
         <v>1</v>
       </c>
       <c r="G44" t="n">
-        <v>136</v>
+        <v>88</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -2792,7 +2792,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -2802,7 +2802,7 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2814,29 +2814,29 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2026-03-24</t>
+          <t>2026-03-01</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>CUST6367</t>
+          <t>CUST2129</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>17082078</v>
+        <v>14377333</v>
       </c>
       <c r="E45" t="n">
-        <v>3375986</v>
+        <v>2306848</v>
       </c>
       <c r="F45" t="n">
         <v>3</v>
       </c>
       <c r="G45" t="n">
-        <v>136</v>
+        <v>51</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2846,7 +2846,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -2856,7 +2856,7 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -2868,29 +2868,29 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2026-03-19</t>
+          <t>2026-03-30</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>CUST7187</t>
+          <t>CUST7505</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>10186395</v>
+        <v>20206711</v>
       </c>
       <c r="E46" t="n">
-        <v>1336848</v>
+        <v>2742982</v>
       </c>
       <c r="F46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -2910,7 +2910,7 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2922,29 +2922,29 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2026-03-16</t>
+          <t>2026-03-22</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>CUST4819</t>
+          <t>CUST2129</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>21529643</v>
+        <v>20547879</v>
       </c>
       <c r="E47" t="n">
-        <v>2965019</v>
+        <v>2238626</v>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G47" t="n">
-        <v>86</v>
+        <v>158</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -2964,7 +2964,7 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2976,29 +2976,29 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2026-03-16</t>
+          <t>2026-03-24</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>CUST4443</t>
+          <t>CUST1921</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>17177715</v>
+        <v>20422971</v>
       </c>
       <c r="E48" t="n">
-        <v>2721797</v>
+        <v>2785747</v>
       </c>
       <c r="F48" t="n">
         <v>3</v>
       </c>
       <c r="G48" t="n">
-        <v>15</v>
+        <v>168</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3008,7 +3008,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -3030,25 +3030,25 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2026-03-16</t>
+          <t>2026-03-13</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>CUST4819</t>
+          <t>CUST1826</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>10187635</v>
+        <v>9318739</v>
       </c>
       <c r="E49" t="n">
-        <v>1996396</v>
+        <v>1087292</v>
       </c>
       <c r="F49" t="n">
         <v>3</v>
       </c>
       <c r="G49" t="n">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -3072,7 +3072,7 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -3084,29 +3084,29 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2026-03-08</t>
+          <t>2026-03-16</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>CUST4038</t>
+          <t>CUST6737</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>16574781</v>
+        <v>10419846</v>
       </c>
       <c r="E50" t="n">
-        <v>1952032</v>
+        <v>1271080</v>
       </c>
       <c r="F50" t="n">
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>116</v>
+        <v>152</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3116,12 +3116,12 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -3138,29 +3138,29 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2026-03-07</t>
+          <t>2026-03-24</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>CUST9017</t>
+          <t>CUST1389</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>8851796</v>
+        <v>9008994</v>
       </c>
       <c r="E51" t="n">
-        <v>900860</v>
+        <v>1106087</v>
       </c>
       <c r="F51" t="n">
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>150</v>
+        <v>24</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3175,7 +3175,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -3192,29 +3192,29 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2026-03-25</t>
+          <t>2026-03-09</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>CUST3543</t>
+          <t>CUST1587</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>9236644</v>
+        <v>23876519</v>
       </c>
       <c r="E52" t="n">
-        <v>1105664</v>
+        <v>3944542</v>
       </c>
       <c r="F52" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -3224,17 +3224,17 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -3246,29 +3246,29 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2026-03-28</t>
+          <t>2026-03-21</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>CUST7619</t>
+          <t>CUST1587</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>13265483</v>
+        <v>21762200</v>
       </c>
       <c r="E53" t="n">
-        <v>2215998</v>
+        <v>3650346</v>
       </c>
       <c r="F53" t="n">
         <v>1</v>
       </c>
       <c r="G53" t="n">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -3278,7 +3278,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -3288,7 +3288,7 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -3300,29 +3300,29 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2026-03-13</t>
+          <t>2026-03-19</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>CUST4819</t>
+          <t>CUST4698</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>17090492</v>
+        <v>19220578</v>
       </c>
       <c r="E54" t="n">
-        <v>2178722</v>
+        <v>2505129</v>
       </c>
       <c r="F54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -3332,17 +3332,17 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -3354,29 +3354,29 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2026-03-15</t>
+          <t>2026-03-11</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>CUST1514</t>
+          <t>CUST7989</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>15527550</v>
+        <v>13653268</v>
       </c>
       <c r="E55" t="n">
-        <v>1991932</v>
+        <v>2091345</v>
       </c>
       <c r="F55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G55" t="n">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -3391,7 +3391,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -3408,25 +3408,25 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2026-03-16</t>
+          <t>2026-03-10</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>CUST6367</t>
+          <t>CUST7505</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>18728038</v>
+        <v>12045583</v>
       </c>
       <c r="E56" t="n">
-        <v>1899848</v>
+        <v>1363841</v>
       </c>
       <c r="F56" t="n">
         <v>2</v>
       </c>
       <c r="G56" t="n">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
@@ -3440,17 +3440,17 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -3462,25 +3462,25 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2026-03-03</t>
+          <t>2026-03-15</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>CUST4338</t>
+          <t>CUST7989</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>9940828</v>
+        <v>12602591</v>
       </c>
       <c r="E57" t="n">
-        <v>1287955</v>
+        <v>2497688</v>
       </c>
       <c r="F57" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
@@ -3494,12 +3494,12 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -3516,29 +3516,29 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2026-03-07</t>
+          <t>2026-03-20</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>CUST3030</t>
+          <t>CUST2892</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>14973810</v>
+        <v>11829539</v>
       </c>
       <c r="E58" t="n">
-        <v>2794548</v>
+        <v>1200248</v>
       </c>
       <c r="F58" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G58" t="n">
-        <v>151</v>
+        <v>33</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -3548,17 +3548,17 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -3570,29 +3570,29 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2026-03-02</t>
+          <t>2026-03-23</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>CUST3030</t>
+          <t>CUST9163</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>16768614</v>
+        <v>23809933</v>
       </c>
       <c r="E59" t="n">
-        <v>2026443</v>
+        <v>4461385</v>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G59" t="n">
-        <v>21</v>
+        <v>177</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -3602,12 +3602,12 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
@@ -3624,29 +3624,29 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2026-03-13</t>
+          <t>2026-03-15</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>CUST9975</t>
+          <t>CUST5514</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>23594299</v>
+        <v>18820155</v>
       </c>
       <c r="E60" t="n">
-        <v>2941754</v>
+        <v>2331073</v>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G60" t="n">
-        <v>48</v>
+        <v>151</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -3656,17 +3656,17 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -3678,29 +3678,29 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2026-03-03</t>
+          <t>2026-03-16</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>CUST6918</t>
+          <t>CUST7505</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>16198625</v>
+        <v>15420522</v>
       </c>
       <c r="E61" t="n">
-        <v>1707258</v>
+        <v>3031119</v>
       </c>
       <c r="F61" t="n">
         <v>2</v>
       </c>
       <c r="G61" t="n">
-        <v>44</v>
+        <v>140</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -3710,17 +3710,17 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -3777,16 +3777,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>58.6</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1467832</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>156510</v>
       </c>
     </row>
     <row r="3">
@@ -3796,16 +3796,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>68.90000000000001</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>16612372</v>
+        <v>10950993</v>
       </c>
       <c r="E3" t="n">
-        <v>4626218</v>
+        <v>1676314</v>
       </c>
     </row>
     <row r="4">
@@ -3815,16 +3815,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>66.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>9837626</v>
+        <v>9792291</v>
       </c>
       <c r="E4" t="n">
-        <v>2539511</v>
+        <v>1947852</v>
       </c>
     </row>
     <row r="5">
@@ -3834,16 +3834,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>60.9</v>
+        <v>62.3</v>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>11886136</v>
+        <v>13846622</v>
       </c>
       <c r="E5" t="n">
-        <v>3123741</v>
+        <v>3309173</v>
       </c>
     </row>
     <row r="6">
@@ -3853,16 +3853,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>70.5</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>2207741</v>
+        <v>5298293</v>
       </c>
       <c r="E6" t="n">
-        <v>362671</v>
+        <v>1210898</v>
       </c>
     </row>
     <row r="7">
@@ -3872,16 +3872,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>70.8</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>7013800</v>
+        <v>11746960</v>
       </c>
       <c r="E7" t="n">
-        <v>1374419</v>
+        <v>1774322</v>
       </c>
     </row>
     <row r="8">
@@ -3929,16 +3929,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>73.09999999999999</v>
+        <v>63.5</v>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>17714808</v>
+        <v>8694466</v>
       </c>
       <c r="E10" t="n">
-        <v>4149620</v>
+        <v>1658054</v>
       </c>
     </row>
     <row r="11">
@@ -3948,16 +3948,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>65.2</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="C11" t="n">
         <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>8381183</v>
+        <v>8935003</v>
       </c>
       <c r="E11" t="n">
-        <v>1107293</v>
+        <v>1363320</v>
       </c>
     </row>
     <row r="12">
@@ -3967,16 +3967,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>65.5</v>
+        <v>69.3</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>2642952</v>
+        <v>11512066</v>
       </c>
       <c r="E12" t="n">
-        <v>450551</v>
+        <v>2432572</v>
       </c>
     </row>
     <row r="13">
@@ -3986,16 +3986,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>75.90000000000001</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>2701651</v>
+        <v>6521354</v>
       </c>
       <c r="E13" t="n">
-        <v>747395</v>
+        <v>961127</v>
       </c>
     </row>
     <row r="14">
@@ -4005,16 +4005,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>75.59999999999999</v>
+        <v>60.5</v>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>6655632</v>
+        <v>8126227</v>
       </c>
       <c r="E14" t="n">
-        <v>1462879</v>
+        <v>2013213</v>
       </c>
     </row>
     <row r="15">
@@ -4062,16 +4062,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>75.5</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
-        <v>1878421</v>
+        <v>15470300</v>
       </c>
       <c r="E17" t="n">
-        <v>440962</v>
+        <v>1763015</v>
       </c>
     </row>
     <row r="18">
@@ -4081,16 +4081,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>67.59999999999999</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>6319913</v>
+        <v>6943462</v>
       </c>
       <c r="E18" t="n">
-        <v>663513</v>
+        <v>1225975</v>
       </c>
     </row>
     <row r="19">
@@ -4100,16 +4100,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.2</v>
+        <v>69.5</v>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>5780540</v>
+        <v>8332387</v>
       </c>
       <c r="E19" t="n">
-        <v>1071924</v>
+        <v>2267623</v>
       </c>
     </row>
     <row r="20">
@@ -4119,16 +4119,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>77.40000000000001</v>
+        <v>63.6</v>
       </c>
       <c r="C20" t="n">
         <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>9023224</v>
+        <v>4985253</v>
       </c>
       <c r="E20" t="n">
-        <v>1322479</v>
+        <v>536502</v>
       </c>
     </row>
     <row r="21">
@@ -4138,16 +4138,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>73.7</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="C21" t="n">
         <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>5923081</v>
+        <v>4696778</v>
       </c>
       <c r="E21" t="n">
-        <v>1070242</v>
+        <v>1016634</v>
       </c>
     </row>
     <row r="22">
@@ -4176,16 +4176,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>58.3</v>
+        <v>57.1</v>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>1136730</v>
+        <v>4173356</v>
       </c>
       <c r="E23" t="n">
-        <v>227606</v>
+        <v>885157</v>
       </c>
     </row>
     <row r="24">
@@ -4195,16 +4195,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>74.09999999999999</v>
+        <v>75.3</v>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>6018990</v>
+        <v>6016703</v>
       </c>
       <c r="E24" t="n">
-        <v>1108836</v>
+        <v>662219</v>
       </c>
     </row>
     <row r="25">
@@ -4214,16 +4214,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>71.7</v>
+        <v>63.9</v>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
-        <v>4195885</v>
+        <v>6495033</v>
       </c>
       <c r="E25" t="n">
-        <v>1221990</v>
+        <v>802461</v>
       </c>
     </row>
     <row r="26">
@@ -4233,16 +4233,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>69.7</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
-        <v>1452681</v>
+        <v>6071915</v>
       </c>
       <c r="E26" t="n">
-        <v>168570</v>
+        <v>1720127</v>
       </c>
     </row>
     <row r="27">
@@ -4252,16 +4252,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>65.7</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
-        <v>8379717</v>
+        <v>7481848</v>
       </c>
       <c r="E27" t="n">
-        <v>1595266</v>
+        <v>2102778</v>
       </c>
     </row>
     <row r="28">
@@ -4271,16 +4271,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>64.5</v>
+        <v>69.8</v>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
-        <v>2904878</v>
+        <v>3784036</v>
       </c>
       <c r="E28" t="n">
-        <v>687165</v>
+        <v>525768</v>
       </c>
     </row>
     <row r="29">
@@ -4328,16 +4328,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>79.90000000000001</v>
+        <v>65</v>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
-        <v>19195776</v>
+        <v>4398132</v>
       </c>
       <c r="E31" t="n">
-        <v>5111576</v>
+        <v>523554</v>
       </c>
     </row>
     <row r="32">
@@ -4347,16 +4347,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>62</v>
+        <v>75.5</v>
       </c>
       <c r="C32" t="n">
         <v>3</v>
       </c>
       <c r="D32" t="n">
-        <v>7053114</v>
+        <v>9696046</v>
       </c>
       <c r="E32" t="n">
-        <v>1803062</v>
+        <v>1407566</v>
       </c>
     </row>
   </sheetData>
